--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_AddConversation_1.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_AddConversation_1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,28 +46,49 @@
     <t>王国信</t>
   </si>
   <si>
+    <t>WangGuoXin</t>
+  </si>
+  <si>
+    <t>约翰逊先生请稍作等待，我们用的可是上好的天水，茶就要现冲现泡才最好喝</t>
+  </si>
+  <si>
+    <t>Mr. Johnson, please wait a moment. We use only the finest natural spring water, and tea tastes best when brewed fresh.</t>
+  </si>
+  <si>
+    <t>约翰逊</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>好的，这就是你们所说的“好茶不怕晚”吧，今天算是体验到了（笑）</t>
+  </si>
+  <si>
+    <t>Alright, so this is what you all mean by 'good tea isn't afraid of being late.' I guess I experienced it today (laughs).</t>
+  </si>
+  <si>
+    <t>王先生，接下来的步骤是不是就到温器了？</t>
+  </si>
+  <si>
+    <t>Mr. Wang, is the next step dealing with the thermostat?</t>
+  </si>
+  <si>
+    <t>您说的对，接下来就到温器的步骤了，请看</t>
+  </si>
+  <si>
+    <t>You are right, the next step is the thermostat. Please take a look.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>约翰逊先生请稍作等待，我们用的可是上好的天水，茶就要现冲现泡才最好喝</t>
-  </si>
-  <si>
-    <t>约翰逊</t>
-  </si>
-  <si>
-    <t>好的，这就是你们所说的“好茶不怕晚”吧，今天算是体验到了（笑）</t>
-  </si>
-  <si>
-    <t>王先生，接下来的步骤是不是就到温器了？</t>
-  </si>
-  <si>
-    <t>您说的对，接下来就到温器的步骤了，请看</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>下一步</t>
+  </si>
+  <si>
+    <t>Continue</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1032,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1041,35 +1062,35 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1080,24 +1101,24 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
